--- a/public/database_master/master_database.xlsx
+++ b/public/database_master/master_database.xlsx
@@ -226,12 +226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -326,11 +332,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -350,6 +353,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,10 +669,10 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" customWidth="1"/>
@@ -670,68 +682,72 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:14" ht="18.75">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="L2" s="1" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" s="11" customFormat="1">
-      <c r="B3" s="8" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" s="10" customFormat="1">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="L4" t="s">
@@ -742,23 +758,27 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="L5" t="s">
@@ -769,19 +789,19 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="20" t="s">
         <v>37</v>
       </c>
       <c r="L6" t="s">
@@ -792,19 +812,19 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="L7" t="s">
@@ -815,17 +835,17 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="L8" t="s">
@@ -836,17 +856,17 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="20" t="s">
         <v>29</v>
       </c>
       <c r="L9" t="s">
@@ -857,19 +877,19 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
@@ -880,306 +900,306 @@
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
       <c r="L12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
       <c r="L14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
       <c r="L15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
       <c r="L16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" s="11" customFormat="1">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="9" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" s="11" customFormat="1">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" s="10" customFormat="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/public/database_master/master_database.xlsx
+++ b/public/database_master/master_database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>T00_M_BRG</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>T00_K_STOCK</t>
+  </si>
+  <si>
+    <t>T20_H_Bayar</t>
+  </si>
+  <si>
+    <t>FTGL_BAYAR</t>
+  </si>
+  <si>
+    <t>FK_BAYAR</t>
+  </si>
+  <si>
+    <t>T20_D_Bayar</t>
+  </si>
+  <si>
+    <t>FJUMLAH</t>
   </si>
 </sst>
 </file>
@@ -332,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -340,7 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -362,6 +376,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,15 +675,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
@@ -682,62 +699,62 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:14" ht="18.75">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="L2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="L2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="2:14" s="10" customFormat="1">
-      <c r="B3" s="15" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="2:14" s="9" customFormat="1">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2">
@@ -747,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="L4" t="s">
@@ -758,17 +775,17 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2">
@@ -778,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="L5" t="s">
@@ -789,7 +806,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
@@ -801,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="L6" t="s">
@@ -812,7 +829,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2"/>
@@ -824,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L7" t="s">
@@ -845,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="L8" t="s">
@@ -866,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="L9" t="s">
@@ -889,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
@@ -1006,72 +1023,78 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" s="10" customFormat="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+    <row r="18" spans="2:10" s="9" customFormat="1">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>48</v>
+      <c r="F19" t="s">
+        <v>61</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>36</v>
+      <c r="F20" t="s">
+        <v>62</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>51</v>
+      <c r="F21" t="s">
+        <v>42</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
@@ -1081,13 +1104,6 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
     </row>
@@ -1103,90 +1119,84 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="8" t="s">
-        <v>58</v>
+      <c r="F24" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" s="10" customFormat="1">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2" t="s">
+    <row r="25" spans="2:10" s="9" customFormat="1">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="2" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>56</v>
+      <c r="F27" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
     </row>

--- a/public/database_master/master_database.xlsx
+++ b/public/database_master/master_database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>T00_M_BRG</t>
   </si>
@@ -211,6 +211,51 @@
   </si>
   <si>
     <t>FJUMLAH</t>
+  </si>
+  <si>
+    <t>FTGL_PO_JUAL</t>
+  </si>
+  <si>
+    <t>FK_PO_JUAL</t>
+  </si>
+  <si>
+    <t>FQT_PO_JUAL</t>
+  </si>
+  <si>
+    <t>FHARGA_PO_JUAL</t>
+  </si>
+  <si>
+    <t>T21_H_PO_JUAL</t>
+  </si>
+  <si>
+    <t>T21_D_PO_JUAL</t>
+  </si>
+  <si>
+    <t>T21_H_KIRIM</t>
+  </si>
+  <si>
+    <t>FTGL_PO_KIRIM</t>
+  </si>
+  <si>
+    <t>FK_PO_KIRIM</t>
+  </si>
+  <si>
+    <t>T21_T_KIRIM</t>
+  </si>
+  <si>
+    <t>FQT_PO_KIRIM</t>
+  </si>
+  <si>
+    <t>FHARGA_PO_KIRIM</t>
+  </si>
+  <si>
+    <t>T21_H_AR</t>
+  </si>
+  <si>
+    <t>FTGL_AR</t>
+  </si>
+  <si>
+    <t>FK_AR</t>
   </si>
 </sst>
 </file>
@@ -268,37 +313,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -343,42 +357,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,7 +746,7 @@
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -697,64 +757,69 @@
     <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:14" ht="18.75">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="19.5" thickBot="1">
+      <c r="B2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="L2" s="13" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="L2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="2:14" s="9" customFormat="1">
-      <c r="B3" s="14" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="2:16" s="10" customFormat="1">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="15" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="2">
@@ -764,28 +829,31 @@
         <v>9</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="15" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="2">
@@ -795,18 +863,21 @@
         <v>10</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="15" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
@@ -818,18 +889,21 @@
         <v>20</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="15" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2"/>
@@ -841,17 +915,20 @@
         <v>22</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -862,17 +939,20 @@
         <v>11</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -883,17 +963,20 @@
         <v>12</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
@@ -906,17 +989,20 @@
         <v>13</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -930,11 +1016,15 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
@@ -948,11 +1038,15 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
@@ -966,11 +1060,15 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -984,11 +1082,15 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1002,11 +1104,15 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1018,44 +1124,66 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" s="9" customFormat="1">
-      <c r="B18" s="2" t="s">
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="2:16" s="10" customFormat="1">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="2" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2"/>
@@ -1063,14 +1191,27 @@
         <v>36</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="2" t="s">
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2"/>
@@ -1078,14 +1219,27 @@
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="2" t="s">
+      <c r="L20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2"/>
@@ -1093,21 +1247,48 @@
         <v>52</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="L21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="L22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1117,39 +1298,68 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1">
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>63</v>
       </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" s="9" customFormat="1">
-      <c r="B25" s="2" t="s">
+      <c r="L24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="2:16" s="10" customFormat="1">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="2" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="L25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="2"/>
@@ -1160,11 +1370,24 @@
       <c r="F26" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="2" t="s">
+      <c r="L26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="2"/>
@@ -1172,14 +1395,27 @@
         <v>56</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="2" t="s">
+      <c r="L27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="2"/>
@@ -1187,20 +1423,44 @@
         <v>57</v>
       </c>
       <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="2" t="s">
+      <c r="L28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1">
+      <c r="L29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.75" thickBot="1">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1210,11 +1470,16 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/database_master/master_database.xlsx
+++ b/public/database_master/master_database.xlsx
@@ -736,7 +736,7 @@
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,7 +977,7 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="2"/>
@@ -1328,7 +1328,9 @@
         <v>74</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="2:16" s="10" customFormat="1">
       <c r="B25" s="1" t="s">
@@ -1354,8 +1356,8 @@
         <v>73</v>
       </c>
       <c r="O25" s="8"/>
-      <c r="P25" s="20" t="s">
-        <v>63</v>
+      <c r="P25" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -1383,7 +1385,7 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -1410,8 +1412,8 @@
         <v>75</v>
       </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="3" t="s">
-        <v>73</v>
+      <c r="P27" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -1436,9 +1438,7 @@
         <v>76</v>
       </c>
       <c r="O28" s="2"/>
-      <c r="P28" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">

--- a/public/database_master/master_database.xlsx
+++ b/public/database_master/master_database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
   <si>
     <t>T00_M_BRG</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>FN_NPWP</t>
-  </si>
-  <si>
-    <t>FK_SAT</t>
   </si>
   <si>
     <t>FK_JENIS</t>
@@ -430,13 +427,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,13 +733,14 @@
   <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -760,7 +758,7 @@
     <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="19.5" thickBot="1">
       <c r="B2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -771,7 +769,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
       <c r="L2" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -814,13 +812,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -848,13 +846,13 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -864,21 +862,21 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="12" t="s">
-        <v>26</v>
+      <c r="B6" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -890,21 +888,21 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="12" t="s">
-        <v>27</v>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -940,14 +938,14 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="3"/>
@@ -964,21 +962,21 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -990,14 +988,14 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
@@ -1026,7 +1024,7 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1048,7 +1046,7 @@
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1070,7 +1068,7 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1092,7 +1090,7 @@
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1134,15 +1132,15 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1156,43 +1154,43 @@
     </row>
     <row r="18" spans="2:16" s="10" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1203,7 +1201,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="3" t="s">
@@ -1212,58 +1210,58 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="L20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -1277,15 +1275,15 @@
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="L22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:16">
@@ -1306,43 +1304,43 @@
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="L24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="10" customFormat="1">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1353,76 +1351,76 @@
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="L26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="L27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1431,18 +1429,18 @@
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
       <c r="L28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1453,7 +1451,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="L29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
